--- a/results/gurobi_cplex_comparison/seed_10_k_25.xlsx
+++ b/results/gurobi_cplex_comparison/seed_10_k_25.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.012</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="F2">
-        <v>0.028</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>0.976</v>
       </c>
       <c r="F3">
-        <v>0.026</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.025</v>
+        <v>1.345</v>
       </c>
       <c r="F4">
-        <v>0.045</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.014</v>
+        <v>1.781</v>
       </c>
       <c r="F5">
-        <v>0.042</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.058</v>
+        <v>2.241</v>
       </c>
       <c r="F6">
-        <v>0.059</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.042</v>
+        <v>2.745</v>
       </c>
       <c r="F7">
-        <v>0.062</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.056</v>
+        <v>3.383</v>
       </c>
       <c r="F8">
-        <v>0.08599999999999999</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.032</v>
+        <v>3.909</v>
       </c>
       <c r="F9">
-        <v>0.06</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.065</v>
+        <v>4.66</v>
       </c>
       <c r="F10">
-        <v>0.08400000000000001</v>
+        <v>1.053</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.029</v>
+        <v>5.342</v>
       </c>
       <c r="F11">
-        <v>0.07000000000000001</v>
+        <v>1.145</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04</v>
+        <v>6.143</v>
       </c>
       <c r="F12">
-        <v>111.384</v>
+        <v>85.319</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.042</v>
+        <v>6.989</v>
       </c>
       <c r="F13">
-        <v>3.422</v>
+        <v>4.314</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08699999999999999</v>
+        <v>7.975</v>
       </c>
       <c r="F14">
-        <v>65.387</v>
+        <v>108.486</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.076</v>
+        <v>8.891</v>
       </c>
       <c r="F15">
-        <v>122.726</v>
+        <v>112.682</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="F16">
-        <v>110.445</v>
+        <v>116.314</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.367</v>
+        <v>11.364</v>
       </c>
       <c r="F17">
-        <v>124.067</v>
+        <v>98.90600000000001</v>
       </c>
     </row>
   </sheetData>
